--- a/Team-Data/2013-14/1-6-2013-14.xlsx
+++ b/Team-Data/2013-14/1-6-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,91 +733,91 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
         <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0.514</v>
+        <v>0.529</v>
       </c>
       <c r="H2" t="n">
         <v>48.7</v>
       </c>
       <c r="I2" t="n">
-        <v>38.2</v>
+        <v>38.5</v>
       </c>
       <c r="J2" t="n">
-        <v>83.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.459</v>
+        <v>0.461</v>
       </c>
       <c r="L2" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="M2" t="n">
         <v>25.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O2" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="P2" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.769</v>
+        <v>0.763</v>
       </c>
       <c r="R2" t="n">
         <v>9.300000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T2" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U2" t="n">
-        <v>25.3</v>
+        <v>25.5</v>
       </c>
       <c r="V2" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y2" t="n">
         <v>4.7</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.1</v>
+        <v>102.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
@@ -759,31 +826,31 @@
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>4</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
@@ -798,13 +865,13 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX2" t="n">
         <v>18</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>20</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
@@ -813,13 +880,13 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BB2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>22</v>
@@ -965,7 +1032,7 @@
         <v>24</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -1030,67 +1097,67 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>0.382</v>
+        <v>0.364</v>
       </c>
       <c r="H4" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
         <v>34.6</v>
       </c>
       <c r="J4" t="n">
-        <v>78.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="K4" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L4" t="n">
         <v>7.5</v>
       </c>
       <c r="M4" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O4" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P4" t="n">
         <v>26</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.759</v>
+        <v>0.762</v>
       </c>
       <c r="R4" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S4" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T4" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V4" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W4" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Y4" t="n">
         <v>4</v>
@@ -1102,25 +1169,25 @@
         <v>21.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.40000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.7</v>
+        <v>-5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
         <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1135,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN4" t="n">
         <v>10</v>
@@ -1147,10 +1214,10 @@
         <v>4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AR4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS4" t="n">
         <v>26</v>
@@ -1159,7 +1226,7 @@
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
@@ -1168,7 +1235,7 @@
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY4" t="n">
         <v>9</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1405,7 @@
         <v>12</v>
       </c>
       <c r="AT5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
         <v>25</v>
@@ -1690,7 +1757,7 @@
         <v>20</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ7" t="n">
         <v>18</v>
@@ -1699,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="AS7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT7" t="n">
         <v>9</v>
@@ -1708,13 +1775,13 @@
         <v>30</v>
       </c>
       <c r="AV7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW7" t="n">
         <v>23</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>1.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1896,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1911,7 +1978,7 @@
         <v>11</v>
       </c>
       <c r="BC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -2018,16 +2085,16 @@
         <v>-0.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF9" t="n">
         <v>13</v>
       </c>
-      <c r="AF9" t="n">
-        <v>12</v>
-      </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -2039,10 +2106,10 @@
         <v>7</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM9" t="n">
         <v>13</v>
@@ -2066,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="AT9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>14</v>
@@ -2081,7 +2148,7 @@
         <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
         <v>24</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>18</v>
@@ -2212,10 +2279,10 @@
         <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ10" t="n">
         <v>5</v>
@@ -2251,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="AU10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV10" t="n">
         <v>19</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>17</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2269,7 +2336,7 @@
         <v>14</v>
       </c>
       <c r="BA10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>4.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2457,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -2594,10 +2661,10 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP12" t="n">
         <v>1</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>9</v>
       </c>
       <c r="AD13" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2773,7 +2840,7 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>12</v>
@@ -2788,7 +2855,7 @@
         <v>5</v>
       </c>
       <c r="AR13" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.649</v>
+        <v>0.639</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J14" t="n">
         <v>82.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M14" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.333</v>
+        <v>0.332</v>
       </c>
       <c r="O14" t="n">
         <v>20.4</v>
       </c>
       <c r="P14" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.725</v>
+        <v>0.722</v>
       </c>
       <c r="R14" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T14" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
         <v>14.2</v>
@@ -2910,22 +2977,22 @@
         <v>8.4</v>
       </c>
       <c r="X14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="AC14" t="n">
         <v>4.6</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>104.6</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>5.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -2973,13 +3040,13 @@
         <v>22</v>
       </c>
       <c r="AS14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>6</v>
@@ -2988,7 +3055,7 @@
         <v>11</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3003,7 +3070,7 @@
         <v>6</v>
       </c>
       <c r="BC14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3155,7 +3222,7 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -3352,16 +3419,16 @@
         <v>18</v>
       </c>
       <c r="AX16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ16" t="n">
         <v>11</v>
       </c>
       <c r="BA16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>6.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
@@ -3486,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>6</v>
@@ -3513,7 +3580,7 @@
         <v>11</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,7 +3753,7 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
         <v>26</v>
@@ -3731,7 +3798,7 @@
         <v>29</v>
       </c>
       <c r="BC18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -3760,103 +3827,103 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="n">
         <v>17</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.485</v>
       </c>
       <c r="H19" t="n">
         <v>48.3</v>
       </c>
       <c r="I19" t="n">
-        <v>38.9</v>
+        <v>38.6</v>
       </c>
       <c r="J19" t="n">
-        <v>89.40000000000001</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L19" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.346</v>
+        <v>0.337</v>
       </c>
       <c r="O19" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P19" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="R19" t="n">
         <v>13.7</v>
       </c>
       <c r="S19" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T19" t="n">
-        <v>45.9</v>
+        <v>45.7</v>
       </c>
       <c r="U19" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V19" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W19" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Y19" t="n">
         <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="AA19" t="n">
         <v>22.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>107.4</v>
+        <v>106.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
         <v>9</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3868,10 +3935,10 @@
         <v>9</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3883,16 +3950,16 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
       </c>
       <c r="AV19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4093,7 @@
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG20" t="n">
         <v>15</v>
@@ -4077,7 +4144,7 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
         <v>2</v>
@@ -4092,7 +4159,7 @@
         <v>19</v>
       </c>
       <c r="BB20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC20" t="n">
         <v>14</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
       </c>
       <c r="AF21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG21" t="n">
         <v>25</v>
@@ -4220,7 +4287,7 @@
         <v>22</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
         <v>25</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4262,7 +4329,7 @@
         <v>10</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY21" t="n">
         <v>5</v>
@@ -4271,7 +4338,7 @@
         <v>29</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
         <v>24</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -4488,28 +4555,28 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.294</v>
+        <v>0.303</v>
       </c>
       <c r="H23" t="n">
         <v>48.6</v>
       </c>
       <c r="I23" t="n">
-        <v>36.5</v>
+        <v>36.7</v>
       </c>
       <c r="J23" t="n">
         <v>82.59999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.441</v>
+        <v>0.444</v>
       </c>
       <c r="L23" t="n">
         <v>7.4</v>
@@ -4518,7 +4585,7 @@
         <v>21.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O23" t="n">
         <v>15.6</v>
@@ -4527,19 +4594,19 @@
         <v>20.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="R23" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="S23" t="n">
         <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U23" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
         <v>15.4</v>
@@ -4548,31 +4615,31 @@
         <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
         <v>20.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.90000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.4</v>
+        <v>-3.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
       </c>
       <c r="AF23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG23" t="n">
         <v>29</v>
@@ -4584,7 +4651,7 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4599,37 +4666,37 @@
         <v>17</v>
       </c>
       <c r="AO23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AV23" t="n">
         <v>18</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>16</v>
       </c>
       <c r="AX23" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AY23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
         <v>16</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -4670,67 +4737,67 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" t="n">
         <v>12</v>
       </c>
       <c r="F24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" t="n">
-        <v>0.353</v>
+        <v>0.364</v>
       </c>
       <c r="H24" t="n">
-        <v>49</v>
+        <v>49.1</v>
       </c>
       <c r="I24" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J24" t="n">
-        <v>89</v>
+        <v>89.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L24" t="n">
         <v>7.4</v>
       </c>
       <c r="M24" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.33</v>
+        <v>0.327</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q24" t="n">
         <v>0.716</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="S24" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T24" t="n">
-        <v>45.3</v>
+        <v>45.5</v>
       </c>
       <c r="U24" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V24" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="W24" t="n">
         <v>8.9</v>
       </c>
       <c r="X24" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y24" t="n">
         <v>6.8</v>
@@ -4739,25 +4806,25 @@
         <v>21.6</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>103</v>
+        <v>103.3</v>
       </c>
       <c r="AC24" t="n">
-        <v>-8.1</v>
+        <v>-7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AE24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH24" t="n">
         <v>3</v>
@@ -4766,13 +4833,13 @@
         <v>3</v>
       </c>
       <c r="AJ24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4781,7 +4848,7 @@
         <v>28</v>
       </c>
       <c r="AO24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP24" t="n">
         <v>15</v>
@@ -4790,7 +4857,7 @@
         <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>5</v>
@@ -4808,7 +4875,7 @@
         <v>4</v>
       </c>
       <c r="AX24" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4817,13 +4884,13 @@
         <v>21</v>
       </c>
       <c r="BA24" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BB24" t="n">
         <v>10</v>
       </c>
       <c r="BC24" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -4945,13 +5012,13 @@
         <v>24</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
@@ -4978,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>6.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
@@ -5124,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5181,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="BA26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB26" t="n">
         <v>1</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5367,7 @@
         <v>28</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>27</v>
@@ -5321,10 +5388,10 @@
         <v>23</v>
       </c>
       <c r="AM27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AN27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>6</v>
@@ -5342,10 +5409,10 @@
         <v>20</v>
       </c>
       <c r="AT27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV27" t="n">
         <v>12</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5515,16 +5582,16 @@
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AS28" t="n">
         <v>7</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>25</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>11</v>
@@ -5700,7 +5767,7 @@
         <v>7</v>
       </c>
       <c r="AR29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
@@ -5879,7 +5946,7 @@
         <v>25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>12</v>
@@ -5909,13 +5976,13 @@
         <v>18</v>
       </c>
       <c r="BA30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB30" t="n">
         <v>28</v>
       </c>
       <c r="BC30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6095,7 @@
         <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
         <v>17</v>
@@ -6043,7 +6110,7 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL31" t="n">
         <v>10</v>
@@ -6061,7 +6128,7 @@
         <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
         <v>13</v>
@@ -6082,7 +6149,7 @@
         <v>9</v>
       </c>
       <c r="AX31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY31" t="n">
         <v>6</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-6-2013-14</t>
+          <t>2014-01-06</t>
         </is>
       </c>
     </row>
